--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd80-Cd274.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd80-Cd274.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.40041266666667</v>
+        <v>0.257284</v>
       </c>
       <c r="H2">
-        <v>91.201238</v>
+        <v>0.771852</v>
       </c>
       <c r="I2">
-        <v>0.8640973522824783</v>
+        <v>0.05106290078335718</v>
       </c>
       <c r="J2">
-        <v>0.8640973522824784</v>
+        <v>0.05106290078335718</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.56563533333333</v>
+        <v>12.794431</v>
       </c>
       <c r="N2">
-        <v>52.696906</v>
+        <v>38.38329299999999</v>
       </c>
       <c r="O2">
-        <v>0.8967254513503751</v>
+        <v>0.8634711242729795</v>
       </c>
       <c r="P2">
-        <v>0.8967254513503751</v>
+        <v>0.8634711242729793</v>
       </c>
       <c r="Q2">
-        <v>534.0025628855142</v>
+        <v>3.291802385403999</v>
       </c>
       <c r="R2">
-        <v>4806.023065969628</v>
+        <v>29.626221468636</v>
       </c>
       <c r="S2">
-        <v>0.7748580882361694</v>
+        <v>0.04409134034804503</v>
       </c>
       <c r="T2">
-        <v>0.7748580882361695</v>
+        <v>0.04409134034804502</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.40041266666667</v>
+        <v>0.257284</v>
       </c>
       <c r="H3">
-        <v>91.201238</v>
+        <v>0.771852</v>
       </c>
       <c r="I3">
-        <v>0.8640973522824783</v>
+        <v>0.05106290078335718</v>
       </c>
       <c r="J3">
-        <v>0.8640973522824784</v>
+        <v>0.05106290078335718</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,25 +617,25 @@
         <v>1.33491</v>
       </c>
       <c r="N3">
-        <v>4.004729999999999</v>
+        <v>4.00473</v>
       </c>
       <c r="O3">
-        <v>0.06814713783739765</v>
+        <v>0.09009046502366876</v>
       </c>
       <c r="P3">
-        <v>0.06814713783739765</v>
+        <v>0.09009046502366874</v>
       </c>
       <c r="Q3">
-        <v>40.58181487285999</v>
+        <v>0.3434509844400001</v>
       </c>
       <c r="R3">
-        <v>365.23633385574</v>
+        <v>3.09105885996</v>
       </c>
       <c r="S3">
-        <v>0.0588857613709244</v>
+        <v>0.004600280477030108</v>
       </c>
       <c r="T3">
-        <v>0.05888576137092441</v>
+        <v>0.004600280477030107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.40041266666667</v>
+        <v>0.257284</v>
       </c>
       <c r="H4">
-        <v>91.201238</v>
+        <v>0.771852</v>
       </c>
       <c r="I4">
-        <v>0.8640973522824783</v>
+        <v>0.05106290078335718</v>
       </c>
       <c r="J4">
-        <v>0.8640973522824784</v>
+        <v>0.05106290078335718</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.064295</v>
       </c>
       <c r="O4">
-        <v>0.03512741081222724</v>
+        <v>0.04643841070335186</v>
       </c>
       <c r="P4">
-        <v>0.03512741081222724</v>
+        <v>0.04643841070335185</v>
       </c>
       <c r="Q4">
-        <v>20.91847328857889</v>
+        <v>0.1770366915933334</v>
       </c>
       <c r="R4">
-        <v>188.26625959721</v>
+        <v>1.59333022434</v>
       </c>
       <c r="S4">
-        <v>0.03035350267538446</v>
+        <v>0.002371279958282048</v>
       </c>
       <c r="T4">
-        <v>0.03035350267538446</v>
+        <v>0.002371279958282047</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>13.069182</v>
       </c>
       <c r="I5">
-        <v>0.1238255730991045</v>
+        <v>0.8646092045957484</v>
       </c>
       <c r="J5">
-        <v>0.1238255730991045</v>
+        <v>0.8646092045957485</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.56563533333333</v>
+        <v>12.794431</v>
       </c>
       <c r="N5">
-        <v>52.696906</v>
+        <v>38.38329299999999</v>
       </c>
       <c r="O5">
-        <v>0.8967254513503751</v>
+        <v>0.8634711242729795</v>
       </c>
       <c r="P5">
-        <v>0.8967254513503751</v>
+        <v>0.8634711242729793</v>
       </c>
       <c r="Q5">
-        <v>76.52282837232134</v>
+        <v>55.737582441814</v>
       </c>
       <c r="R5">
-        <v>688.7054553508921</v>
+        <v>501.638241976326</v>
       </c>
       <c r="S5">
-        <v>0.1110375429260133</v>
+        <v>0.7465650819490574</v>
       </c>
       <c r="T5">
-        <v>0.1110375429260133</v>
+        <v>0.7465650819490574</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>13.069182</v>
       </c>
       <c r="I6">
-        <v>0.1238255730991045</v>
+        <v>0.8646092045957484</v>
       </c>
       <c r="J6">
-        <v>0.1238255730991045</v>
+        <v>0.8646092045957485</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,25 +803,25 @@
         <v>1.33491</v>
       </c>
       <c r="N6">
-        <v>4.004729999999999</v>
+        <v>4.00473</v>
       </c>
       <c r="O6">
-        <v>0.06814713783739765</v>
+        <v>0.09009046502366876</v>
       </c>
       <c r="P6">
-        <v>0.06814713783739765</v>
+        <v>0.09009046502366874</v>
       </c>
       <c r="Q6">
-        <v>5.81539391454</v>
+        <v>5.815393914540001</v>
       </c>
       <c r="R6">
-        <v>52.33854523086</v>
+        <v>52.33854523086001</v>
       </c>
       <c r="S6">
-        <v>0.008438358397779433</v>
+        <v>0.07789304530577533</v>
       </c>
       <c r="T6">
-        <v>0.008438358397779433</v>
+        <v>0.07789304530577533</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>13.069182</v>
       </c>
       <c r="I7">
-        <v>0.1238255730991045</v>
+        <v>0.8646092045957484</v>
       </c>
       <c r="J7">
-        <v>0.1238255730991045</v>
+        <v>0.8646092045957485</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>2.064295</v>
       </c>
       <c r="O7">
-        <v>0.03512741081222724</v>
+        <v>0.04643841070335186</v>
       </c>
       <c r="P7">
-        <v>0.03512741081222724</v>
+        <v>0.04643841070335185</v>
       </c>
       <c r="Q7">
         <v>2.997627450743334</v>
@@ -880,10 +880,10 @@
         <v>26.97864705669</v>
       </c>
       <c r="S7">
-        <v>0.004349671775311718</v>
+        <v>0.04015107734091574</v>
       </c>
       <c r="T7">
-        <v>0.004349671775311718</v>
+        <v>0.04015107734091573</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.274676</v>
       </c>
       <c r="I8">
-        <v>0.01207707461841714</v>
+        <v>0.08432789462089441</v>
       </c>
       <c r="J8">
-        <v>0.01207707461841714</v>
+        <v>0.08432789462089442</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.56563533333333</v>
+        <v>12.794431</v>
       </c>
       <c r="N8">
-        <v>52.696906</v>
+        <v>38.38329299999999</v>
       </c>
       <c r="O8">
-        <v>0.8967254513503751</v>
+        <v>0.8634711242729795</v>
       </c>
       <c r="P8">
-        <v>0.8967254513503751</v>
+        <v>0.8634711242729793</v>
       </c>
       <c r="Q8">
-        <v>7.463497928050666</v>
+        <v>5.436251376451999</v>
       </c>
       <c r="R8">
-        <v>67.171481352456</v>
+        <v>48.92626238806799</v>
       </c>
       <c r="S8">
-        <v>0.01082982018819226</v>
+        <v>0.07281470197587703</v>
       </c>
       <c r="T8">
-        <v>0.01082982018819226</v>
+        <v>0.07281470197587703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.274676</v>
       </c>
       <c r="I9">
-        <v>0.01207707461841714</v>
+        <v>0.08432789462089441</v>
       </c>
       <c r="J9">
-        <v>0.01207707461841714</v>
+        <v>0.08432789462089442</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,25 +989,25 @@
         <v>1.33491</v>
       </c>
       <c r="N9">
-        <v>4.004729999999999</v>
+        <v>4.00473</v>
       </c>
       <c r="O9">
-        <v>0.06814713783739765</v>
+        <v>0.09009046502366876</v>
       </c>
       <c r="P9">
-        <v>0.06814713783739765</v>
+        <v>0.09009046502366874</v>
       </c>
       <c r="Q9">
-        <v>0.5671925797199999</v>
+        <v>0.56719257972</v>
       </c>
       <c r="R9">
-        <v>5.104733217479999</v>
+        <v>5.10473321748</v>
       </c>
       <c r="S9">
-        <v>0.0008230180686938091</v>
+        <v>0.007597139240863312</v>
       </c>
       <c r="T9">
-        <v>0.0008230180686938091</v>
+        <v>0.007597139240863312</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.274676</v>
       </c>
       <c r="I10">
-        <v>0.01207707461841714</v>
+        <v>0.08432789462089441</v>
       </c>
       <c r="J10">
-        <v>0.01207707461841714</v>
+        <v>0.08432789462089442</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>2.064295</v>
       </c>
       <c r="O10">
-        <v>0.03512741081222724</v>
+        <v>0.04643841070335186</v>
       </c>
       <c r="P10">
-        <v>0.03512741081222724</v>
+        <v>0.04643841070335185</v>
       </c>
       <c r="Q10">
         <v>0.2923674770466667</v>
@@ -1066,10 +1066,10 @@
         <v>2.63130729342</v>
       </c>
       <c r="S10">
-        <v>0.0004242363615310613</v>
+        <v>0.003916053404154071</v>
       </c>
       <c r="T10">
-        <v>0.0004242363615310613</v>
+        <v>0.003916053404154071</v>
       </c>
     </row>
   </sheetData>
